--- a/src/test/resources/data/data.xlsx
+++ b/src/test/resources/data/data.xlsx
@@ -1,31 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27921"/>
   <workbookPr/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROYECTOS\retoFalabella\src\test\resources\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{8B4B9EC5-083F-4C6A-9AAC-2F7B3A950FF0}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="8_{82108C1B-A4DF-4C0F-B816-0E4E1669EAFC}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView windowHeight="11295" windowWidth="21600" xWindow="7275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="2460"/>
+    <workbookView windowHeight="8010" windowWidth="14805" xWindow="240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="105"/>
   </bookViews>
   <sheets>
     <sheet name="Data" r:id="rId1" sheetId="1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>url</t>
   </si>
@@ -33,43 +39,88 @@
     <t>product</t>
   </si>
   <si>
-    <t>https://www.falabella.com.co/falabella-co</t>
-  </si>
-  <si>
-    <t>Calentador de agua</t>
-  </si>
-  <si>
     <t>product_one</t>
   </si>
   <si>
     <t>product_two</t>
   </si>
   <si>
+    <t>quantity_one</t>
+  </si>
+  <si>
+    <t>quantity_two</t>
+  </si>
+  <si>
+    <t>https://www.falabella.com.co/falabella-co/</t>
+  </si>
+  <si>
+    <t>calentador de agua</t>
+  </si>
+  <si>
+    <t>Calentador de Agua Bambú 12 Litros de Paso A</t>
+  </si>
+  <si>
+    <t>Tetera Eléctrica Calentador Hervidor De Agua Plegable Viaje 600ml</t>
+  </si>
+  <si>
+    <t>Calentador De Agua Therm 5600F 15 Lts Termostático GAS PROPANO Por</t>
+  </si>
+  <si>
+    <t>Calentador De Tiro Forzado 6</t>
+  </si>
+  <si>
+    <t>Calentador De Agua 10 Litros Tiro Forzado De Paso A Gas Propano Therm 1400</t>
+  </si>
+  <si>
+    <t>Calentador de Agua 14 Litros Tiro Forzado de Paso a Gas Natural Therm 2400</t>
+  </si>
+  <si>
+    <t>Bolsa Térmica Cólicos Alivio Dolores Agua Caliente Oso Felpa Por</t>
+  </si>
+  <si>
+    <t>Calentador bambú 5.5 litros de paso a gas natural tiro</t>
+  </si>
+  <si>
+    <t>Calentador 10lt Gas Natural Tiro Forzado Therm</t>
+  </si>
+  <si>
+    <t>Calentador de Paso Gas Natural 10 Litros Natural</t>
+  </si>
+  <si>
     <t>Calentador de Tiro Natural 12L Blanco</t>
   </si>
   <si>
-    <t>Calentador de Agua 6 Litros Tiro Natural de Paso a Gas Natural Therm 1000</t>
+    <t>Calentador De Agua Therm 5600F 18 Lts Termostático GAS NATURAL Por</t>
+  </si>
+  <si>
+    <t>Calentador De Agua 21lt Gas Propano Tiro Forzado Dig</t>
+  </si>
+  <si>
+    <t>Calentador De Agua 6 Litros Tiro Forzado De Paso A Gas</t>
   </si>
   <si>
     <t>Calentador Hervidor De Agua Eléctrico Plegable Viaje</t>
   </si>
   <si>
-    <t>Súper Ducha Blanca 220 Voltios Con</t>
-  </si>
-  <si>
-    <t>Calentador Electrónico 220v 12kw Tronic</t>
-  </si>
-  <si>
     <t>Calentador De Tiro Forzado 10</t>
   </si>
   <si>
-    <t>Calentador De Tiro Forzado 6</t>
+    <t>Calentador de Agua 5.5 Litros Tiro Natural de Paso a Gas Propano Therm 1000</t>
+  </si>
+  <si>
+    <t>Calentador de Agua Eléctrico a 220 Voltios 9.5 kW Premium Tronic 4000</t>
+  </si>
+  <si>
+    <t>Calentador De Agua 18 Litros Tiro Forzado De Paso A Gas</t>
   </si>
   <si>
     <t>Calentador De Agua 10 Litros Tiro Natural</t>
   </si>
   <si>
-    <t>14lt Gas Natural Tiro Forzado</t>
+    <t>Calentador De Agua 12lt Gas Natural Tiro Forzado</t>
+  </si>
+  <si>
+    <t>Ducha Eléctrica Advanced 220</t>
   </si>
 </sst>
 </file>
@@ -77,11 +128,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -89,7 +140,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -115,19 +166,16 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hipervínculo" xfId="1"/>
+    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -150,42 +198,42 @@
         <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="145F82"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E87331"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="186C24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin panose="020F0302020204030204" typeface="Aptos Display"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -215,12 +263,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin panose="02110004020202020204" typeface="Aptos Narrow"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -250,6 +315,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -311,13 +393,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -326,6 +401,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -390,7 +472,27 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
@@ -402,21 +504,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="39.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="34.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="67.140625" collapsed="true"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -424,29 +520,41 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F2">
         <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A2" xr:uid="{57D84AFC-43EB-40D9-8E8D-4CF9BC64F088}"/>
+    <hyperlink r:id="rId1" ref="A2" xr:uid="{094D3BF0-51C3-495D-A03C-C544B4CFA35B}"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/resources/data/data.xlsx
+++ b/src/test/resources/data/data.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr/>
-  <xr:revisionPtr documentId="8_{82108C1B-A4DF-4C0F-B816-0E4E1669EAFC}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROYECTOS\retoFalabella\src\test\resources\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr documentId="13_ncr:1_{76522A50-63EE-4471-AC29-9D12F90691AA}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView windowHeight="8010" windowWidth="14805" xWindow="240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="105"/>
+    <workbookView windowHeight="15720" windowWidth="29040" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Data" r:id="rId1" sheetId="1"/>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>url</t>
   </si>
@@ -57,70 +62,22 @@
     <t>calentador de agua</t>
   </si>
   <si>
-    <t>Calentador de Agua Bambú 12 Litros de Paso A</t>
-  </si>
-  <si>
-    <t>Tetera Eléctrica Calentador Hervidor De Agua Plegable Viaje 600ml</t>
-  </si>
-  <si>
-    <t>Calentador De Agua Therm 5600F 15 Lts Termostático GAS PROPANO Por</t>
-  </si>
-  <si>
-    <t>Calentador De Tiro Forzado 6</t>
-  </si>
-  <si>
-    <t>Calentador De Agua 10 Litros Tiro Forzado De Paso A Gas Propano Therm 1400</t>
-  </si>
-  <si>
-    <t>Calentador de Agua 14 Litros Tiro Forzado de Paso a Gas Natural Therm 2400</t>
-  </si>
-  <si>
     <t>Bolsa Térmica Cólicos Alivio Dolores Agua Caliente Oso Felpa Por</t>
   </si>
   <si>
-    <t>Calentador bambú 5.5 litros de paso a gas natural tiro</t>
-  </si>
-  <si>
-    <t>Calentador 10lt Gas Natural Tiro Forzado Therm</t>
-  </si>
-  <si>
-    <t>Calentador de Paso Gas Natural 10 Litros Natural</t>
-  </si>
-  <si>
-    <t>Calentador de Tiro Natural 12L Blanco</t>
-  </si>
-  <si>
-    <t>Calentador De Agua Therm 5600F 18 Lts Termostático GAS NATURAL Por</t>
-  </si>
-  <si>
-    <t>Calentador De Agua 21lt Gas Propano Tiro Forzado Dig</t>
-  </si>
-  <si>
-    <t>Calentador De Agua 6 Litros Tiro Forzado De Paso A Gas</t>
-  </si>
-  <si>
-    <t>Calentador Hervidor De Agua Eléctrico Plegable Viaje</t>
-  </si>
-  <si>
-    <t>Calentador De Tiro Forzado 10</t>
-  </si>
-  <si>
-    <t>Calentador de Agua 5.5 Litros Tiro Natural de Paso a Gas Propano Therm 1000</t>
-  </si>
-  <si>
-    <t>Calentador de Agua Eléctrico a 220 Voltios 9.5 kW Premium Tronic 4000</t>
-  </si>
-  <si>
-    <t>Calentador De Agua 18 Litros Tiro Forzado De Paso A Gas</t>
-  </si>
-  <si>
-    <t>Calentador De Agua 10 Litros Tiro Natural</t>
-  </si>
-  <si>
-    <t>Calentador De Agua 12lt Gas Natural Tiro Forzado</t>
-  </si>
-  <si>
     <t>Ducha Eléctrica Advanced 220</t>
+  </si>
+  <si>
+    <t>Calentador De Agua Eléctrico A 220 Voltios 7.7 kW Premium Tronic 3000</t>
+  </si>
+  <si>
+    <t>Calentador De Paso A Gas 6 Litros Tiro</t>
+  </si>
+  <si>
+    <t>Calentador de Paso</t>
+  </si>
+  <si>
+    <t>Calentador de Agua 6 Litros Tiro Natural de Paso a Gas Natural Therm 1000</t>
   </si>
 </sst>
 </file>
@@ -166,9 +123,14 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -507,48 +469,57 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="35.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="16.5" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="56.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="26.25" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="11.125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="11.0" collapsed="true"/>
+    <col min="7" max="16384" style="1" width="9.0" collapsed="true"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2">
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>3</v>
       </c>
     </row>
@@ -557,5 +528,6 @@
     <hyperlink r:id="rId1" ref="A2" xr:uid="{094D3BF0-51C3-495D-A03C-C544B4CFA35B}"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/test/resources/data/data.xlsx
+++ b/src/test/resources/data/data.xlsx
@@ -1,42 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROYECTOS\retoFalabella\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{76522A50-63EE-4471-AC29-9D12F90691AA}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{2FA45DE5-FCC7-486A-B2CF-A87B752CB1CA}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView windowHeight="15720" windowWidth="29040" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+    <workbookView windowHeight="15720" windowWidth="29040" xWindow="28680" xr2:uid="{B37A965B-628C-467B-ACBE-E4B6930D86AF}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Data" r:id="rId1" sheetId="1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>url</t>
   </si>
@@ -44,6 +33,12 @@
     <t>product</t>
   </si>
   <si>
+    <t>https://www.falabella.com.co/falabella-co/</t>
+  </si>
+  <si>
+    <t>calentador de agua</t>
+  </si>
+  <si>
     <t>product_one</t>
   </si>
   <si>
@@ -56,28 +51,40 @@
     <t>quantity_two</t>
   </si>
   <si>
-    <t>https://www.falabella.com.co/falabella-co/</t>
-  </si>
-  <si>
-    <t>calentador de agua</t>
-  </si>
-  <si>
-    <t>Bolsa Térmica Cólicos Alivio Dolores Agua Caliente Oso Felpa Por</t>
-  </si>
-  <si>
-    <t>Ducha Eléctrica Advanced 220</t>
-  </si>
-  <si>
-    <t>Calentador De Agua Eléctrico A 220 Voltios 7.7 kW Premium Tronic 3000</t>
-  </si>
-  <si>
-    <t>Calentador De Paso A Gas 6 Litros Tiro</t>
-  </si>
-  <si>
-    <t>Calentador de Paso</t>
-  </si>
-  <si>
-    <t>Calentador de Agua 6 Litros Tiro Natural de Paso a Gas Natural Therm 1000</t>
+    <t>Calentador de Agua Eléctrico a 220 Voltios 9.5 kW Premium Tronic 4000 C Bosch</t>
+  </si>
+  <si>
+    <t>Calentador de agua 480 w resistencia eléctrica inmersión hj119</t>
+  </si>
+  <si>
+    <t>Calentador De Agua 12lt Gas Natural Tiro Forzado Rheem</t>
+  </si>
+  <si>
+    <t>Calentador Bosch Electrónico 220v 12kw Tronic 3000c</t>
+  </si>
+  <si>
+    <t>Calentador de Paso Haceb BAM5.5LGNDISPB</t>
+  </si>
+  <si>
+    <t>Calentador De Paso A Gas 6 Litros Tiro Natural Challenger</t>
+  </si>
+  <si>
+    <t>Súper Ducha Blanca 220 Voltios Con Manguera</t>
+  </si>
+  <si>
+    <t>Calentador De Agua 10 Litros Tiro Natural Blanco</t>
+  </si>
+  <si>
+    <t>Ducha Electrica Gold 110 Voltios Blanca /Negra sin Manguera</t>
+  </si>
+  <si>
+    <t>Calentador electrónico de paso 10 lt bifásico</t>
+  </si>
+  <si>
+    <t>Calentador de agua Haceb 7 lts de paso GN tiro natural blanco</t>
+  </si>
+  <si>
+    <t>Ducha Eléctrica Horizontal Lusso Negra 110 Voltios</t>
   </si>
 </sst>
 </file>
@@ -85,11 +92,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -97,7 +104,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -125,7 +132,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
@@ -133,11 +140,11 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
+    <cellStyle name="Hyperlink" xfId="1" xr:uid="{F4140496-7989-4E59-8CB1-EBE099482F48}"/>
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -150,7 +157,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -160,39 +167,39 @@
         <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="145F82"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E87331"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="186C24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Aptos Display"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -244,7 +251,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="02110004020202020204" typeface="Aptos Narrow"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -355,6 +362,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -363,13 +377,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -434,27 +441,7 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
@@ -465,69 +452,63 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452735D7-1B59-4EB1-9781-18CACEF585E8}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="35.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="16.5" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="56.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="26.25" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="11.125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="11.0" collapsed="true"/>
-    <col min="7" max="16384" style="1" width="9.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="71.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="57.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2">
         <v>2</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A2" xr:uid="{094D3BF0-51C3-495D-A03C-C544B4CFA35B}"/>
+    <hyperlink r:id="rId1" ref="A2" xr:uid="{BE6C9419-A164-4526-8D5C-480D3BE59A76}"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/test/resources/data/data.xlsx
+++ b/src/test/resources/data/data.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROYECTOS\retoFalabella\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{2FA45DE5-FCC7-486A-B2CF-A87B752CB1CA}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AEBD86-BE1A-457F-8944-2DDB9A9DB76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="15720" windowWidth="29040" xWindow="28680" xr2:uid="{B37A965B-628C-467B-ACBE-E4B6930D86AF}" yWindow="-120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B37A965B-628C-467B-ACBE-E4B6930D86AF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" r:id="rId1" sheetId="1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>url</t>
   </si>
@@ -36,9 +36,6 @@
     <t>https://www.falabella.com.co/falabella-co/</t>
   </si>
   <si>
-    <t>calentador de agua</t>
-  </si>
-  <si>
     <t>product_one</t>
   </si>
   <si>
@@ -51,47 +48,19 @@
     <t>quantity_two</t>
   </si>
   <si>
-    <t>Calentador de Agua Eléctrico a 220 Voltios 9.5 kW Premium Tronic 4000 C Bosch</t>
-  </si>
-  <si>
-    <t>Calentador de agua 480 w resistencia eléctrica inmersión hj119</t>
-  </si>
-  <si>
-    <t>Calentador De Agua 12lt Gas Natural Tiro Forzado Rheem</t>
-  </si>
-  <si>
-    <t>Calentador Bosch Electrónico 220v 12kw Tronic 3000c</t>
-  </si>
-  <si>
-    <t>Calentador de Paso Haceb BAM5.5LGNDISPB</t>
-  </si>
-  <si>
-    <t>Calentador De Paso A Gas 6 Litros Tiro Natural Challenger</t>
-  </si>
-  <si>
-    <t>Súper Ducha Blanca 220 Voltios Con Manguera</t>
-  </si>
-  <si>
-    <t>Calentador De Agua 10 Litros Tiro Natural Blanco</t>
-  </si>
-  <si>
-    <t>Ducha Electrica Gold 110 Voltios Blanca /Negra sin Manguera</t>
-  </si>
-  <si>
-    <t>Calentador electrónico de paso 10 lt bifásico</t>
-  </si>
-  <si>
-    <t>Calentador de agua Haceb 7 lts de paso GN tiro natural blanco</t>
-  </si>
-  <si>
-    <t>Ducha Eléctrica Horizontal Lusso Negra 110 Voltios</t>
+    <t>Consolas retro</t>
+  </si>
+  <si>
+    <t>Consola Retro LH89 - Videojuegos Clásicos</t>
+  </si>
+  <si>
+    <t>Game Tv Stick - Convierte Tu Tv En Smart Y Consola Retro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -127,24 +96,24 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{F4140496-7989-4E59-8CB1-EBE099482F48}"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -161,10 +130,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -199,7 +168,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -251,7 +220,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -362,21 +331,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -393,7 +362,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -445,24 +414,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452735D7-1B59-4EB1-9781-18CACEF585E8}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452735D7-1B59-4EB1-9781-18CACEF585E8}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="71.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="57.28515625" collapsed="true"/>
+    <col min="1" max="1" width="40.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="51.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.42578125" collapsed="1"/>
+    <col min="9" max="16384" width="11.42578125" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -473,16 +448,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -490,16 +465,16 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="D2">
         <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -507,8 +482,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A2" xr:uid="{BE6C9419-A164-4526-8D5C-480D3BE59A76}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{BE6C9419-A164-4526-8D5C-480D3BE59A76}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/test/resources/data/data.xlsx
+++ b/src/test/resources/data/data.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROYECTOS\retoFalabella\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AEBD86-BE1A-457F-8944-2DDB9A9DB76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{49DCC28B-4161-4FD7-AE16-BBAEC9F601D7}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B37A965B-628C-467B-ACBE-E4B6930D86AF}"/>
+    <workbookView windowHeight="15720" windowWidth="29040" xWindow="-120" xr2:uid="{B37A965B-628C-467B-ACBE-E4B6930D86AF}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>url</t>
   </si>
@@ -48,19 +48,26 @@
     <t>quantity_two</t>
   </si>
   <si>
-    <t>Consolas retro</t>
-  </si>
-  <si>
-    <t>Consola Retro LH89 - Videojuegos Clásicos</t>
-  </si>
-  <si>
     <t>Game Tv Stick - Convierte Tu Tv En Smart Y Consola Retro</t>
+  </si>
+  <si>
+    <t>Tenis Adidas para Mujer Moda Advantage</t>
+  </si>
+  <si>
+    <t>Minibares</t>
+  </si>
+  <si>
+    <t>Mini Nevera Snack-To-Go 4 Litros Negro MasterChef® by Hukën®</t>
+  </si>
+  <si>
+    <t>Mini Nevera Draw-Erase 4L Negro MasterChef® by Hukën®</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -96,24 +103,24 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{F4140496-7989-4E59-8CB1-EBE099482F48}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -130,10 +137,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -168,7 +175,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -220,7 +227,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -331,21 +338,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -362,7 +369,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -414,30 +421,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452735D7-1B59-4EB1-9781-18CACEF585E8}">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452735D7-1B59-4EB1-9781-18CACEF585E8}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="51.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.42578125" collapsed="1"/>
-    <col min="9" max="16384" width="11.42578125" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="40.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="56.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="51.7109375" collapsed="true"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="7" max="7" width="11.42578125" collapsed="true"/>
+    <col min="9" max="9" width="11.42578125" collapsed="true"/>
+    <col min="12" max="16384" width="11.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -451,10 +458,10 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
@@ -465,16 +472,16 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2">
         <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -482,9 +489,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{BE6C9419-A164-4526-8D5C-480D3BE59A76}"/>
+    <hyperlink r:id="rId1" ref="A2" xr:uid="{BE6C9419-A164-4526-8D5C-480D3BE59A76}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>